--- a/z-support-files/Spectral-finalize/TEI/1871-Field-Diary-Bambarre-Letter/1871-FD-Numbers.xlsx
+++ b/z-support-files/Spectral-finalize/TEI/1871-Field-Diary-Bambarre-Letter/1871-FD-Numbers.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Roman no.s" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -612,8 +612,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -650,19 +724,93 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -995,7 +1143,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1208,7 +1356,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="3">
@@ -1239,7 +1387,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="3">
@@ -1253,7 +1401,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="3">
@@ -1309,7 +1457,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="3">

--- a/z-support-files/Spectral-finalize/TEI/1871-Field-Diary-Bambarre-Letter/1871-FD-Numbers.xlsx
+++ b/z-support-files/Spectral-finalize/TEI/1871-Field-Diary-Bambarre-Letter/1871-FD-Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Roman no.s" sheetId="1" r:id="rId1"/>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="3">
@@ -1215,7 +1215,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="3">
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="3">
@@ -1277,7 +1277,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="3">
@@ -1308,7 +1308,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="3">
@@ -1339,7 +1339,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="3">
@@ -1370,7 +1370,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="3">
@@ -1415,7 +1415,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="3">
@@ -1429,7 +1429,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="3">
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="3">
@@ -1471,7 +1471,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="3">
@@ -1499,7 +1499,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="3">
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B26" s="3">
@@ -1555,7 +1555,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B28" s="3">
@@ -1583,7 +1583,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B30" s="3">
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="3">

--- a/z-support-files/Spectral-finalize/TEI/1871-Field-Diary-Bambarre-Letter/1871-FD-Numbers.xlsx
+++ b/z-support-files/Spectral-finalize/TEI/1871-Field-Diary-Bambarre-Letter/1871-FD-Numbers.xlsx
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1639,7 +1639,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B34" s="3">
@@ -1653,7 +1653,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="3">
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B65" s="3">

--- a/z-support-files/Spectral-finalize/TEI/1871-Field-Diary-Bambarre-Letter/1871-FD-Numbers.xlsx
+++ b/z-support-files/Spectral-finalize/TEI/1871-Field-Diary-Bambarre-Letter/1871-FD-Numbers.xlsx
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1667,7 +1667,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="3">
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B37" s="3">
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B38" s="3">
@@ -1709,7 +1709,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B39" s="3">
@@ -1723,7 +1723,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B40" s="3">
@@ -1737,7 +1737,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B41" s="3">
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B42" s="3">
@@ -1765,7 +1765,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="3">
@@ -1779,7 +1779,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B44" s="3">
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B45" s="3">
@@ -1807,7 +1807,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B46" s="3">
@@ -1821,7 +1821,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B47" s="3">
@@ -1835,7 +1835,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B48" s="3">
@@ -1849,7 +1849,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B49" s="3">
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B50" s="3">
@@ -1877,7 +1877,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B51" s="3">
@@ -1891,7 +1891,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B52" s="3">
@@ -1905,7 +1905,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B53" s="3">
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B54" s="3">
@@ -1933,7 +1933,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B55" s="3">
@@ -1947,7 +1947,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B56" s="3">
@@ -1961,7 +1961,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B57" s="3">
@@ -1975,7 +1975,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B58" s="3">
@@ -1989,7 +1989,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B59" s="3">
@@ -2003,7 +2003,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B60" s="3">
@@ -2017,7 +2017,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B61" s="3">
@@ -2031,7 +2031,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B62" s="3">
@@ -2045,7 +2045,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B63" s="3">
@@ -2059,7 +2059,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B64" s="3">
